--- a/Output/Classifier Evaluation/Model Performance Table.xlsx
+++ b/Output/Classifier Evaluation/Model Performance Table.xlsx
@@ -444,7 +444,7 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Run Type</t>
+          <t>Features</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">

--- a/Output/Classifier Evaluation/Model Performance Table.xlsx
+++ b/Output/Classifier Evaluation/Model Performance Table.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:F8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -476,22 +476,22 @@
       </c>
       <c r="B2" s="2" t="inlineStr">
         <is>
-          <t>All Features PCA</t>
+          <t>All Data</t>
         </is>
       </c>
       <c r="C2" s="2" t="inlineStr">
         <is>
-          <t>C: 0.1, class_weight: None, l1_ratio: 0.5, multi_class: ovr, penalty: elasticnet, solver: saga</t>
+          <t>C: 0.1, class_weight: balanced, l1_ratio: 1.0, multi_class: ovr, penalty: elasticnet, solver: saga</t>
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>0.9921705813759787</v>
+        <v>0.9841745793769782</v>
       </c>
       <c r="E2" s="2" t="n">
-        <v>0.9048806550097142</v>
+        <v>0.915708021093533</v>
       </c>
       <c r="F2" s="2" t="n">
-        <v>0.890530557421088</v>
+        <v>0.9106783075889859</v>
       </c>
     </row>
     <row r="3">
@@ -502,48 +502,48 @@
       </c>
       <c r="B3" s="2" t="inlineStr">
         <is>
-          <t>Individual Features PCA</t>
+          <t>All Features PCA</t>
         </is>
       </c>
       <c r="C3" s="2" t="inlineStr">
         <is>
-          <t>C: 0.01, class_weight: balanced, l1_ratio: 0.25, multi_class: ovr, penalty: elasticnet, solver: saga</t>
+          <t>C: 0.1, class_weight: None, l1_ratio: 0.5, multi_class: ovr, penalty: elasticnet, solver: saga</t>
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>0.9580209895052474</v>
+        <v>0.9921705813759787</v>
       </c>
       <c r="E3" s="2" t="n">
-        <v>0.9158759367194005</v>
+        <v>0.9048806550097142</v>
       </c>
       <c r="F3" s="2" t="n">
-        <v>0.9093351242444594</v>
+        <v>0.890530557421088</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="inlineStr">
         <is>
-          <t>SVM</t>
+          <t>Logistic Regression</t>
         </is>
       </c>
       <c r="B4" s="2" t="inlineStr">
         <is>
-          <t>All Features PCA</t>
+          <t>Individual Features PCA</t>
         </is>
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>C: 0.1, degree: 2, gamma: 0.1, kernel: poly</t>
+          <t>C: 0.01, class_weight: balanced, l1_ratio: 0.25, multi_class: ovr, penalty: elasticnet, solver: saga</t>
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>1</v>
+        <v>0.9580209895052474</v>
       </c>
       <c r="E4" s="2" t="n">
-        <v>0.5032482653344436</v>
+        <v>0.9158759367194005</v>
       </c>
       <c r="F4" s="2" t="n">
-        <v>0.5742108797850907</v>
+        <v>0.9093351242444594</v>
       </c>
     </row>
     <row r="5">
@@ -554,7 +554,7 @@
       </c>
       <c r="B5" s="2" t="inlineStr">
         <is>
-          <t>Individual Features PCA</t>
+          <t>All Features PCA</t>
         </is>
       </c>
       <c r="C5" s="2" t="inlineStr">
@@ -566,36 +566,36 @@
         <v>1</v>
       </c>
       <c r="E5" s="2" t="n">
-        <v>0.5797078823202886</v>
+        <v>0.5032482653344436</v>
       </c>
       <c r="F5" s="2" t="n">
-        <v>0.6312961719274681</v>
+        <v>0.5742108797850907</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="inlineStr">
         <is>
-          <t>XGBoost</t>
+          <t>SVM</t>
         </is>
       </c>
       <c r="B6" s="2" t="inlineStr">
         <is>
-          <t>All Features PCA</t>
+          <t>Individual Features PCA</t>
         </is>
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>colsample_bytree: 1, learning_rate: 0.3, max_depth: 3, n_estimators: 200, subsample: 0.8</t>
+          <t>C: 0.1, degree: 2, gamma: 0.1, kernel: poly</t>
         </is>
       </c>
       <c r="D6" s="2" t="n">
         <v>1</v>
       </c>
       <c r="E6" s="2" t="n">
-        <v>0.8555727171801276</v>
+        <v>0.5797078823202886</v>
       </c>
       <c r="F6" s="2" t="n">
-        <v>0.8629952988582942</v>
+        <v>0.6312961719274681</v>
       </c>
     </row>
     <row r="7">
@@ -606,21 +606,47 @@
       </c>
       <c r="B7" s="2" t="inlineStr">
         <is>
-          <t>Individual Features PCA</t>
+          <t>All Features PCA</t>
         </is>
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>colsample_bytree: 0.8, learning_rate: 0.3, max_depth: 3, n_estimators: 200, subsample: 0.8</t>
+          <t>colsample_bytree: 1, learning_rate: 0.3, max_depth: 3, n_estimators: 200, subsample: 0.8</t>
         </is>
       </c>
       <c r="D7" s="2" t="n">
         <v>1</v>
       </c>
       <c r="E7" s="2" t="n">
+        <v>0.8555727171801276</v>
+      </c>
+      <c r="F7" s="2" t="n">
+        <v>0.8629952988582942</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="inlineStr">
+        <is>
+          <t>XGBoost</t>
+        </is>
+      </c>
+      <c r="B8" s="2" t="inlineStr">
+        <is>
+          <t>Individual Features PCA</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>colsample_bytree: 0.8, learning_rate: 0.3, max_depth: 3, n_estimators: 200, subsample: 0.8</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E8" s="2" t="n">
         <v>0.888055925617541</v>
       </c>
-      <c r="F7" s="2" t="n">
+      <c r="F8" s="2" t="n">
         <v>0.8811282740094023</v>
       </c>
     </row>

--- a/Output/Classifier Evaluation/Model Performance Table.xlsx
+++ b/Output/Classifier Evaluation/Model Performance Table.xlsx
@@ -476,7 +476,7 @@
       </c>
       <c r="B2" s="2" t="inlineStr">
         <is>
-          <t>All Data</t>
+          <t>All Features</t>
         </is>
       </c>
       <c r="C2" s="2" t="inlineStr">

--- a/Output/Classifier Evaluation/Model Performance Table.xlsx
+++ b/Output/Classifier Evaluation/Model Performance Table.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:F9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -606,7 +606,7 @@
       </c>
       <c r="B7" s="2" t="inlineStr">
         <is>
-          <t>All Features PCA</t>
+          <t>All Features</t>
         </is>
       </c>
       <c r="C7" s="2" t="inlineStr">
@@ -618,10 +618,10 @@
         <v>1</v>
       </c>
       <c r="E7" s="2" t="n">
-        <v>0.8555727171801276</v>
+        <v>0.9093798223702472</v>
       </c>
       <c r="F7" s="2" t="n">
-        <v>0.8629952988582942</v>
+        <v>0.9012760241773002</v>
       </c>
     </row>
     <row r="8">
@@ -632,21 +632,47 @@
       </c>
       <c r="B8" s="2" t="inlineStr">
         <is>
-          <t>Individual Features PCA</t>
+          <t>All Features PCA</t>
         </is>
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>colsample_bytree: 0.8, learning_rate: 0.3, max_depth: 3, n_estimators: 200, subsample: 0.8</t>
+          <t>colsample_bytree: 1, learning_rate: 0.3, max_depth: 3, n_estimators: 200, subsample: 0.8</t>
         </is>
       </c>
       <c r="D8" s="2" t="n">
         <v>1</v>
       </c>
       <c r="E8" s="2" t="n">
+        <v>0.8555727171801276</v>
+      </c>
+      <c r="F8" s="2" t="n">
+        <v>0.8629952988582942</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="inlineStr">
+        <is>
+          <t>XGBoost</t>
+        </is>
+      </c>
+      <c r="B9" s="2" t="inlineStr">
+        <is>
+          <t>Individual Features PCA</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>colsample_bytree: 0.8, learning_rate: 0.3, max_depth: 3, n_estimators: 200, subsample: 0.8</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E9" s="2" t="n">
         <v>0.888055925617541</v>
       </c>
-      <c r="F8" s="2" t="n">
+      <c r="F9" s="2" t="n">
         <v>0.8811282740094023</v>
       </c>
     </row>

--- a/Output/Classifier Evaluation/Model Performance Table.xlsx
+++ b/Output/Classifier Evaluation/Model Performance Table.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F9"/>
+  <dimension ref="A1:F12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -676,6 +676,84 @@
         <v>0.8811282740094023</v>
       </c>
     </row>
+    <row r="10">
+      <c r="A10" s="2" t="inlineStr">
+        <is>
+          <t>Random Forest</t>
+        </is>
+      </c>
+      <c r="B10" s="2" t="inlineStr">
+        <is>
+          <t>All Features</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>bootstrap: False, max_depth: 30, max_features: sqrt, min_samples_leaf: 2, min_samples_split: 5, n_estimators: 1000</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E10" s="2" t="n">
+        <v>0.861068276436303</v>
+      </c>
+      <c r="F10" s="2" t="n">
+        <v>0.847548690396239</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="inlineStr">
+        <is>
+          <t>Random Forest</t>
+        </is>
+      </c>
+      <c r="B11" s="2" t="inlineStr">
+        <is>
+          <t>All Features PCA</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>bootstrap: False, max_depth: 60, max_features: sqrt, min_samples_leaf: 2, min_samples_split: 5, n_estimators: 1000</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E11" s="2" t="n">
+        <v>0.6959852900360811</v>
+      </c>
+      <c r="F11" s="2" t="n">
+        <v>0.7004701141705842</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="inlineStr">
+        <is>
+          <t>Random Forest</t>
+        </is>
+      </c>
+      <c r="B12" s="2" t="inlineStr">
+        <is>
+          <t>Individual Features PCA</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>bootstrap: False, max_depth: 50, max_features: sqrt, min_samples_leaf: 2, min_samples_split: 5, n_estimators: 1000</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E12" s="2" t="n">
+        <v>0.8077581182348045</v>
+      </c>
+      <c r="F12" s="2" t="n">
+        <v>0.7904633982538617</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Output/Classifier Evaluation/Model Performance Table.xlsx
+++ b/Output/Classifier Evaluation/Model Performance Table.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F12"/>
+  <dimension ref="A1:F13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -601,27 +601,27 @@
     <row r="7">
       <c r="A7" s="2" t="inlineStr">
         <is>
-          <t>XGBoost</t>
+          <t>SVM</t>
         </is>
       </c>
       <c r="B7" s="2" t="inlineStr">
         <is>
-          <t>All Features</t>
+          <t>VGG</t>
         </is>
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>colsample_bytree: 1, learning_rate: 0.3, max_depth: 3, n_estimators: 200, subsample: 0.8</t>
+          <t>C: 1, degree: 2, gamma: 0.001, kernel: rbf</t>
         </is>
       </c>
       <c r="D7" s="2" t="n">
-        <v>1</v>
+        <v>0.9431950691321006</v>
       </c>
       <c r="E7" s="2" t="n">
-        <v>0.9093798223702472</v>
+        <v>0.8697316125451013</v>
       </c>
       <c r="F7" s="2" t="n">
-        <v>0.9012760241773002</v>
+        <v>0.8643384822028207</v>
       </c>
     </row>
     <row r="8">
@@ -632,7 +632,7 @@
       </c>
       <c r="B8" s="2" t="inlineStr">
         <is>
-          <t>All Features PCA</t>
+          <t>All Features</t>
         </is>
       </c>
       <c r="C8" s="2" t="inlineStr">
@@ -644,10 +644,10 @@
         <v>1</v>
       </c>
       <c r="E8" s="2" t="n">
-        <v>0.8555727171801276</v>
+        <v>0.9093798223702472</v>
       </c>
       <c r="F8" s="2" t="n">
-        <v>0.8629952988582942</v>
+        <v>0.9012760241773002</v>
       </c>
     </row>
     <row r="9">
@@ -658,48 +658,48 @@
       </c>
       <c r="B9" s="2" t="inlineStr">
         <is>
-          <t>Individual Features PCA</t>
+          <t>All Features PCA</t>
         </is>
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>colsample_bytree: 0.8, learning_rate: 0.3, max_depth: 3, n_estimators: 200, subsample: 0.8</t>
+          <t>colsample_bytree: 1, learning_rate: 0.3, max_depth: 3, n_estimators: 200, subsample: 0.8</t>
         </is>
       </c>
       <c r="D9" s="2" t="n">
         <v>1</v>
       </c>
       <c r="E9" s="2" t="n">
-        <v>0.888055925617541</v>
+        <v>0.8555727171801276</v>
       </c>
       <c r="F9" s="2" t="n">
-        <v>0.8811282740094023</v>
+        <v>0.8629952988582942</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="inlineStr">
         <is>
-          <t>Random Forest</t>
+          <t>XGBoost</t>
         </is>
       </c>
       <c r="B10" s="2" t="inlineStr">
         <is>
-          <t>All Features</t>
+          <t>Individual Features PCA</t>
         </is>
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>bootstrap: False, max_depth: 30, max_features: sqrt, min_samples_leaf: 2, min_samples_split: 5, n_estimators: 1000</t>
+          <t>colsample_bytree: 0.8, learning_rate: 0.3, max_depth: 3, n_estimators: 200, subsample: 0.8</t>
         </is>
       </c>
       <c r="D10" s="2" t="n">
         <v>1</v>
       </c>
       <c r="E10" s="2" t="n">
-        <v>0.861068276436303</v>
+        <v>0.888055925617541</v>
       </c>
       <c r="F10" s="2" t="n">
-        <v>0.847548690396239</v>
+        <v>0.8811282740094023</v>
       </c>
     </row>
     <row r="11">
@@ -710,22 +710,22 @@
       </c>
       <c r="B11" s="2" t="inlineStr">
         <is>
-          <t>All Features PCA</t>
+          <t>All Features</t>
         </is>
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>bootstrap: False, max_depth: 60, max_features: sqrt, min_samples_leaf: 2, min_samples_split: 5, n_estimators: 1000</t>
+          <t>bootstrap: False, max_depth: 30, max_features: sqrt, min_samples_leaf: 2, min_samples_split: 5, n_estimators: 1000</t>
         </is>
       </c>
       <c r="D11" s="2" t="n">
         <v>1</v>
       </c>
       <c r="E11" s="2" t="n">
-        <v>0.6959852900360811</v>
+        <v>0.861068276436303</v>
       </c>
       <c r="F11" s="2" t="n">
-        <v>0.7004701141705842</v>
+        <v>0.847548690396239</v>
       </c>
     </row>
     <row r="12">
@@ -736,21 +736,47 @@
       </c>
       <c r="B12" s="2" t="inlineStr">
         <is>
-          <t>Individual Features PCA</t>
+          <t>All Features PCA</t>
         </is>
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>bootstrap: False, max_depth: 50, max_features: sqrt, min_samples_leaf: 2, min_samples_split: 5, n_estimators: 1000</t>
+          <t>bootstrap: False, max_depth: 60, max_features: sqrt, min_samples_leaf: 2, min_samples_split: 5, n_estimators: 1000</t>
         </is>
       </c>
       <c r="D12" s="2" t="n">
         <v>1</v>
       </c>
       <c r="E12" s="2" t="n">
+        <v>0.6959852900360811</v>
+      </c>
+      <c r="F12" s="2" t="n">
+        <v>0.7004701141705842</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="inlineStr">
+        <is>
+          <t>Random Forest</t>
+        </is>
+      </c>
+      <c r="B13" s="2" t="inlineStr">
+        <is>
+          <t>Individual Features PCA</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>bootstrap: False, max_depth: 50, max_features: sqrt, min_samples_leaf: 2, min_samples_split: 5, n_estimators: 1000</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E13" s="2" t="n">
         <v>0.8077581182348045</v>
       </c>
-      <c r="F12" s="2" t="n">
+      <c r="F13" s="2" t="n">
         <v>0.7904633982538617</v>
       </c>
     </row>

--- a/Output/Classifier Evaluation/Model Performance Table.xlsx
+++ b/Output/Classifier Evaluation/Model Performance Table.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F13"/>
+  <dimension ref="A1:F14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -705,27 +705,27 @@
     <row r="11">
       <c r="A11" s="2" t="inlineStr">
         <is>
-          <t>Random Forest</t>
+          <t>XGBoost</t>
         </is>
       </c>
       <c r="B11" s="2" t="inlineStr">
         <is>
-          <t>All Features</t>
+          <t>VGG</t>
         </is>
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>bootstrap: False, max_depth: 30, max_features: sqrt, min_samples_leaf: 2, min_samples_split: 5, n_estimators: 1000</t>
+          <t>learning_rate: 0.5, max_depth: 3, min_child_weight: 1, n_estimators: 300</t>
         </is>
       </c>
       <c r="D11" s="2" t="n">
         <v>1</v>
       </c>
       <c r="E11" s="2" t="n">
-        <v>0.861068276436303</v>
+        <v>0.8637334165972801</v>
       </c>
       <c r="F11" s="2" t="n">
-        <v>0.847548690396239</v>
+        <v>0.8542646071188718</v>
       </c>
     </row>
     <row r="12">
@@ -736,22 +736,22 @@
       </c>
       <c r="B12" s="2" t="inlineStr">
         <is>
-          <t>All Features PCA</t>
+          <t>All Features</t>
         </is>
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>bootstrap: False, max_depth: 60, max_features: sqrt, min_samples_leaf: 2, min_samples_split: 5, n_estimators: 1000</t>
+          <t>bootstrap: False, max_depth: 30, max_features: sqrt, min_samples_leaf: 2, min_samples_split: 5, n_estimators: 1000</t>
         </is>
       </c>
       <c r="D12" s="2" t="n">
         <v>1</v>
       </c>
       <c r="E12" s="2" t="n">
-        <v>0.6959852900360811</v>
+        <v>0.861068276436303</v>
       </c>
       <c r="F12" s="2" t="n">
-        <v>0.7004701141705842</v>
+        <v>0.847548690396239</v>
       </c>
     </row>
     <row r="13">
@@ -762,21 +762,47 @@
       </c>
       <c r="B13" s="2" t="inlineStr">
         <is>
-          <t>Individual Features PCA</t>
+          <t>All Features PCA</t>
         </is>
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>bootstrap: False, max_depth: 50, max_features: sqrt, min_samples_leaf: 2, min_samples_split: 5, n_estimators: 1000</t>
+          <t>bootstrap: False, max_depth: 60, max_features: sqrt, min_samples_leaf: 2, min_samples_split: 5, n_estimators: 1000</t>
         </is>
       </c>
       <c r="D13" s="2" t="n">
         <v>1</v>
       </c>
       <c r="E13" s="2" t="n">
+        <v>0.6959852900360811</v>
+      </c>
+      <c r="F13" s="2" t="n">
+        <v>0.7004701141705842</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="inlineStr">
+        <is>
+          <t>Random Forest</t>
+        </is>
+      </c>
+      <c r="B14" s="2" t="inlineStr">
+        <is>
+          <t>Individual Features PCA</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>bootstrap: False, max_depth: 50, max_features: sqrt, min_samples_leaf: 2, min_samples_split: 5, n_estimators: 1000</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E14" s="2" t="n">
         <v>0.8077581182348045</v>
       </c>
-      <c r="F13" s="2" t="n">
+      <c r="F14" s="2" t="n">
         <v>0.7904633982538617</v>
       </c>
     </row>

--- a/Output/Classifier Evaluation/Model Performance Table.xlsx
+++ b/Output/Classifier Evaluation/Model Performance Table.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F14"/>
+  <dimension ref="A1:F15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -549,27 +549,27 @@
     <row r="5">
       <c r="A5" s="2" t="inlineStr">
         <is>
-          <t>SVM</t>
+          <t>Logistic Regression</t>
         </is>
       </c>
       <c r="B5" s="2" t="inlineStr">
         <is>
-          <t>All Features PCA</t>
+          <t>VGG</t>
         </is>
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>C: 0.1, degree: 2, gamma: 0.1, kernel: poly</t>
+          <t>C: 0.1, class_weight: None, l1_ratio: 1.0, multi_class: multinomial, penalty: elasticnet, solver: saga</t>
         </is>
       </c>
       <c r="D5" s="2" t="n">
-        <v>1</v>
+        <v>0.9180409795102449</v>
       </c>
       <c r="E5" s="2" t="n">
-        <v>0.5032482653344436</v>
+        <v>0.8635645295587011</v>
       </c>
       <c r="F5" s="2" t="n">
-        <v>0.5742108797850907</v>
+        <v>0.857622565480188</v>
       </c>
     </row>
     <row r="6">
@@ -580,22 +580,22 @@
       </c>
       <c r="B6" s="2" t="inlineStr">
         <is>
-          <t>Individual Features PCA</t>
+          <t>All Features PCA</t>
         </is>
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>C: 0.1, degree: 2, gamma: 0.1, kernel: poly</t>
+          <t>C: 1, degree: 2, gamma: 0.001, kernel: rbf</t>
         </is>
       </c>
       <c r="D6" s="2" t="n">
-        <v>1</v>
+        <v>0.9985007496251874</v>
       </c>
       <c r="E6" s="2" t="n">
-        <v>0.5797078823202886</v>
+        <v>0.7706133777407715</v>
       </c>
       <c r="F6" s="2" t="n">
-        <v>0.6312961719274681</v>
+        <v>0.5742108797850907</v>
       </c>
     </row>
     <row r="7">
@@ -606,7 +606,7 @@
       </c>
       <c r="B7" s="2" t="inlineStr">
         <is>
-          <t>VGG</t>
+          <t>Individual Features PCA</t>
         </is>
       </c>
       <c r="C7" s="2" t="inlineStr">
@@ -615,39 +615,39 @@
         </is>
       </c>
       <c r="D7" s="2" t="n">
-        <v>0.9431950691321006</v>
+        <v>0.9990004997501249</v>
       </c>
       <c r="E7" s="2" t="n">
-        <v>0.8697316125451013</v>
+        <v>0.7706115736885929</v>
       </c>
       <c r="F7" s="2" t="n">
-        <v>0.8643384822028207</v>
+        <v>0.6312961719274681</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="inlineStr">
         <is>
-          <t>XGBoost</t>
+          <t>SVM</t>
         </is>
       </c>
       <c r="B8" s="2" t="inlineStr">
         <is>
-          <t>All Features</t>
+          <t>VGG</t>
         </is>
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>colsample_bytree: 1, learning_rate: 0.3, max_depth: 3, n_estimators: 200, subsample: 0.8</t>
+          <t>C: 1, class_weight: None, degree: 2, gamma: 0.001, kernel: rbf</t>
         </is>
       </c>
       <c r="D8" s="2" t="n">
-        <v>1</v>
+        <v>0.9431950691321006</v>
       </c>
       <c r="E8" s="2" t="n">
-        <v>0.9093798223702472</v>
+        <v>0.8697316125451013</v>
       </c>
       <c r="F8" s="2" t="n">
-        <v>0.9012760241773002</v>
+        <v>0.8643384822028207</v>
       </c>
     </row>
     <row r="9">
@@ -658,7 +658,7 @@
       </c>
       <c r="B9" s="2" t="inlineStr">
         <is>
-          <t>All Features PCA</t>
+          <t>All Features</t>
         </is>
       </c>
       <c r="C9" s="2" t="inlineStr">
@@ -670,10 +670,10 @@
         <v>1</v>
       </c>
       <c r="E9" s="2" t="n">
-        <v>0.8555727171801276</v>
+        <v>0.9093798223702472</v>
       </c>
       <c r="F9" s="2" t="n">
-        <v>0.8629952988582942</v>
+        <v>0.9012760241773002</v>
       </c>
     </row>
     <row r="10">
@@ -684,22 +684,22 @@
       </c>
       <c r="B10" s="2" t="inlineStr">
         <is>
-          <t>Individual Features PCA</t>
+          <t>All Features PCA</t>
         </is>
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>colsample_bytree: 0.8, learning_rate: 0.3, max_depth: 3, n_estimators: 200, subsample: 0.8</t>
+          <t>learning_rate: 0.5, max_depth: 3, min_child_weight: 3, n_estimators: 300</t>
         </is>
       </c>
       <c r="D10" s="2" t="n">
         <v>1</v>
       </c>
       <c r="E10" s="2" t="n">
-        <v>0.888055925617541</v>
+        <v>0.8604021648626144</v>
       </c>
       <c r="F10" s="2" t="n">
-        <v>0.8811282740094023</v>
+        <v>0.8643384822028207</v>
       </c>
     </row>
     <row r="11">
@@ -710,48 +710,48 @@
       </c>
       <c r="B11" s="2" t="inlineStr">
         <is>
-          <t>VGG</t>
+          <t>Individual Features PCA</t>
         </is>
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>learning_rate: 0.5, max_depth: 3, min_child_weight: 1, n_estimators: 300</t>
+          <t>learning_rate: 0.5, max_depth: 3, min_child_weight: 3, n_estimators: 300</t>
         </is>
       </c>
       <c r="D11" s="2" t="n">
         <v>1</v>
       </c>
       <c r="E11" s="2" t="n">
-        <v>0.8637334165972801</v>
+        <v>0.890555925617541</v>
       </c>
       <c r="F11" s="2" t="n">
-        <v>0.8542646071188718</v>
+        <v>0.8757555406312961</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="2" t="inlineStr">
         <is>
-          <t>Random Forest</t>
+          <t>XGBoost</t>
         </is>
       </c>
       <c r="B12" s="2" t="inlineStr">
         <is>
-          <t>All Features</t>
+          <t>VGG</t>
         </is>
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>bootstrap: False, max_depth: 30, max_features: sqrt, min_samples_leaf: 2, min_samples_split: 5, n_estimators: 1000</t>
+          <t>learning_rate: 0.5, max_depth: 3, min_child_weight: 1, n_estimators: 300</t>
         </is>
       </c>
       <c r="D12" s="2" t="n">
         <v>1</v>
       </c>
       <c r="E12" s="2" t="n">
-        <v>0.861068276436303</v>
+        <v>0.8637334165972801</v>
       </c>
       <c r="F12" s="2" t="n">
-        <v>0.847548690396239</v>
+        <v>0.8542646071188718</v>
       </c>
     </row>
     <row r="13">
@@ -762,22 +762,22 @@
       </c>
       <c r="B13" s="2" t="inlineStr">
         <is>
-          <t>All Features PCA</t>
+          <t>All Features</t>
         </is>
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>bootstrap: False, max_depth: 60, max_features: sqrt, min_samples_leaf: 2, min_samples_split: 5, n_estimators: 1000</t>
+          <t>bootstrap: False, max_depth: 30, max_features: sqrt, min_samples_leaf: 2, min_samples_split: 5, n_estimators: 1000</t>
         </is>
       </c>
       <c r="D13" s="2" t="n">
         <v>1</v>
       </c>
       <c r="E13" s="2" t="n">
-        <v>0.6959852900360811</v>
+        <v>0.861068276436303</v>
       </c>
       <c r="F13" s="2" t="n">
-        <v>0.7004701141705842</v>
+        <v>0.847548690396239</v>
       </c>
     </row>
     <row r="14">
@@ -788,22 +788,48 @@
       </c>
       <c r="B14" s="2" t="inlineStr">
         <is>
-          <t>Individual Features PCA</t>
+          <t>All Features PCA</t>
         </is>
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>bootstrap: False, max_depth: 50, max_features: sqrt, min_samples_leaf: 2, min_samples_split: 5, n_estimators: 1000</t>
+          <t>bootstrap: False, max_depth: 60, max_features: sqrt, min_samples_leaf: 1, n_estimators: 1500</t>
         </is>
       </c>
       <c r="D14" s="2" t="n">
         <v>1</v>
       </c>
       <c r="E14" s="2" t="n">
-        <v>0.8077581182348045</v>
+        <v>0.6989836247571468</v>
       </c>
       <c r="F14" s="2" t="n">
-        <v>0.7904633982538617</v>
+        <v>0.7011417058428475</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="inlineStr">
+        <is>
+          <t>Random Forest</t>
+        </is>
+      </c>
+      <c r="B15" s="2" t="inlineStr">
+        <is>
+          <t>Individual Features PCA</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>bootstrap: False, max_depth: 40, max_features: sqrt, min_samples_leaf: 1, n_estimators: 500</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E15" s="2" t="n">
+        <v>0.8084256175409381</v>
+      </c>
+      <c r="F15" s="2" t="n">
+        <v>0.7897918065815984</v>
       </c>
     </row>
   </sheetData>

--- a/Output/Classifier Evaluation/Model Performance Table.xlsx
+++ b/Output/Classifier Evaluation/Model Performance Table.xlsx
@@ -585,14 +585,14 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>C: 1, degree: 2, gamma: 0.001, kernel: rbf</t>
+          <t>C: 10, class_weight: balanced, degree: 2, gamma: 0.001, kernel: rbf</t>
         </is>
       </c>
       <c r="D6" s="2" t="n">
-        <v>0.9985007496251874</v>
+        <v>1</v>
       </c>
       <c r="E6" s="2" t="n">
-        <v>0.7706133777407715</v>
+        <v>0.815259089647516</v>
       </c>
       <c r="F6" s="2" t="n">
         <v>0.5742108797850907</v>
@@ -767,17 +767,17 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>bootstrap: False, max_depth: 30, max_features: sqrt, min_samples_leaf: 2, min_samples_split: 5, n_estimators: 1000</t>
+          <t>bootstrap: False, max_depth: 80, max_features: sqrt, min_samples_leaf: 1, n_estimators: 1500</t>
         </is>
       </c>
       <c r="D13" s="2" t="n">
         <v>1</v>
       </c>
       <c r="E13" s="2" t="n">
-        <v>0.861068276436303</v>
+        <v>0.8615681376630585</v>
       </c>
       <c r="F13" s="2" t="n">
-        <v>0.847548690396239</v>
+        <v>0.8529214237743452</v>
       </c>
     </row>
     <row r="14">

--- a/Output/Classifier Evaluation/Model Performance Table.xlsx
+++ b/Output/Classifier Evaluation/Model Performance Table.xlsx
@@ -595,7 +595,7 @@
         <v>0.815259089647516</v>
       </c>
       <c r="F6" s="2" t="n">
-        <v>0.5742108797850907</v>
+        <v>0.8582941571524513</v>
       </c>
     </row>
     <row r="7">
@@ -611,14 +611,14 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>C: 1, degree: 2, gamma: 0.001, kernel: rbf</t>
+          <t>C: 10, class_weight: balanced, degree: 2, gamma: 0.001, kernel: rbf</t>
         </is>
       </c>
       <c r="D7" s="2" t="n">
-        <v>0.9990004997501249</v>
+        <v>1</v>
       </c>
       <c r="E7" s="2" t="n">
-        <v>0.7706115736885929</v>
+        <v>0.8062611712461838</v>
       </c>
       <c r="F7" s="2" t="n">
         <v>0.6312961719274681</v>
@@ -663,14 +663,14 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>colsample_bytree: 1, learning_rate: 0.3, max_depth: 3, n_estimators: 200, subsample: 0.8</t>
+          <t>learning_rate: 0.5, max_depth: 3, min_child_weight: 1, n_estimators: 300</t>
         </is>
       </c>
       <c r="D9" s="2" t="n">
         <v>1</v>
       </c>
       <c r="E9" s="2" t="n">
-        <v>0.9093798223702472</v>
+        <v>0.9085460727171804</v>
       </c>
       <c r="F9" s="2" t="n">
         <v>0.9012760241773002</v>

--- a/Output/Classifier Evaluation/Model Performance Table.xlsx
+++ b/Output/Classifier Evaluation/Model Performance Table.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F15"/>
+  <dimension ref="A1:F17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -637,14 +637,14 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>C: 1, class_weight: None, degree: 2, gamma: 0.001, kernel: rbf</t>
+          <t>C: 10.0, class_weight: balanced, gamma: scale, kernel: rbf</t>
         </is>
       </c>
       <c r="D8" s="2" t="n">
-        <v>0.9431950691321006</v>
+        <v>1</v>
       </c>
       <c r="E8" s="2" t="n">
-        <v>0.8697316125451013</v>
+        <v>0.8697293921731891</v>
       </c>
       <c r="F8" s="2" t="n">
         <v>0.8643384822028207</v>
@@ -736,7 +736,7 @@
       </c>
       <c r="B12" s="2" t="inlineStr">
         <is>
-          <t>VGG</t>
+          <t>Top3 Features</t>
         </is>
       </c>
       <c r="C12" s="2" t="inlineStr">
@@ -748,36 +748,36 @@
         <v>1</v>
       </c>
       <c r="E12" s="2" t="n">
-        <v>0.8637334165972801</v>
+        <v>0.8597356369691923</v>
       </c>
       <c r="F12" s="2" t="n">
-        <v>0.8542646071188718</v>
+        <v>0.8488918737407656</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="2" t="inlineStr">
         <is>
-          <t>Random Forest</t>
+          <t>XGBoost</t>
         </is>
       </c>
       <c r="B13" s="2" t="inlineStr">
         <is>
-          <t>All Features</t>
+          <t>VGG</t>
         </is>
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>bootstrap: False, max_depth: 80, max_features: sqrt, min_samples_leaf: 1, n_estimators: 1500</t>
+          <t>learning_rate: 0.5, max_depth: 3, min_child_weight: 1, n_estimators: 300</t>
         </is>
       </c>
       <c r="D13" s="2" t="n">
         <v>1</v>
       </c>
       <c r="E13" s="2" t="n">
-        <v>0.8615681376630585</v>
+        <v>0.8637334165972801</v>
       </c>
       <c r="F13" s="2" t="n">
-        <v>0.8529214237743452</v>
+        <v>0.8542646071188718</v>
       </c>
     </row>
     <row r="14">
@@ -788,22 +788,22 @@
       </c>
       <c r="B14" s="2" t="inlineStr">
         <is>
-          <t>All Features PCA</t>
+          <t>All Features</t>
         </is>
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>bootstrap: False, max_depth: 60, max_features: sqrt, min_samples_leaf: 1, n_estimators: 1500</t>
+          <t>bootstrap: False, max_depth: 80, max_features: sqrt, min_samples_leaf: 1, n_estimators: 1500</t>
         </is>
       </c>
       <c r="D14" s="2" t="n">
         <v>1</v>
       </c>
       <c r="E14" s="2" t="n">
-        <v>0.6989836247571468</v>
+        <v>0.8615681376630585</v>
       </c>
       <c r="F14" s="2" t="n">
-        <v>0.7011417058428475</v>
+        <v>0.8529214237743452</v>
       </c>
     </row>
     <row r="15">
@@ -814,22 +814,74 @@
       </c>
       <c r="B15" s="2" t="inlineStr">
         <is>
+          <t>All Features PCA</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>bootstrap: False, max_depth: 60, max_features: sqrt, min_samples_leaf: 1, n_estimators: 1500</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E15" s="2" t="n">
+        <v>0.6989836247571468</v>
+      </c>
+      <c r="F15" s="2" t="n">
+        <v>0.7011417058428475</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="inlineStr">
+        <is>
+          <t>Random Forest</t>
+        </is>
+      </c>
+      <c r="B16" s="2" t="inlineStr">
+        <is>
           <t>Individual Features PCA</t>
         </is>
       </c>
-      <c r="C15" s="2" t="inlineStr">
+      <c r="C16" s="2" t="inlineStr">
         <is>
           <t>bootstrap: False, max_depth: 40, max_features: sqrt, min_samples_leaf: 1, n_estimators: 500</t>
         </is>
       </c>
-      <c r="D15" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="E15" s="2" t="n">
+      <c r="D16" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E16" s="2" t="n">
         <v>0.8084256175409381</v>
       </c>
-      <c r="F15" s="2" t="n">
+      <c r="F16" s="2" t="n">
         <v>0.7897918065815984</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="inlineStr">
+        <is>
+          <t>Random Forest</t>
+        </is>
+      </c>
+      <c r="B17" s="2" t="inlineStr">
+        <is>
+          <t>Top3 Features</t>
+        </is>
+      </c>
+      <c r="C17" s="2" t="inlineStr">
+        <is>
+          <t>bootstrap: False, max_depth: 80, max_features: sqrt, min_samples_leaf: 2, n_estimators: 500</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E17" s="2" t="n">
+        <v>0.7932697751873439</v>
+      </c>
+      <c r="F17" s="2" t="n">
+        <v>0.7575554063129617</v>
       </c>
     </row>
   </sheetData>

--- a/Output/Classifier Evaluation/Model Performance Table.xlsx
+++ b/Output/Classifier Evaluation/Model Performance Table.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F17"/>
+  <dimension ref="A1:F18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -585,17 +585,17 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>C: 10, class_weight: balanced, degree: 2, gamma: 0.001, kernel: rbf</t>
+          <t>C: 10.0, class_weight: balanced, gamma: 0.0, kernel: rbf</t>
         </is>
       </c>
       <c r="D6" s="2" t="n">
-        <v>1</v>
+        <v>0.9643511577544561</v>
       </c>
       <c r="E6" s="2" t="n">
-        <v>0.815259089647516</v>
+        <v>0.8827245351096309</v>
       </c>
       <c r="F6" s="2" t="n">
-        <v>0.8582941571524513</v>
+        <v>0.8985896574882472</v>
       </c>
     </row>
     <row r="7">
@@ -611,17 +611,17 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>C: 10, class_weight: balanced, degree: 2, gamma: 0.001, kernel: rbf</t>
+          <t>C: 10.0, class_weight: balanced, gamma: 0.0, kernel: rbf</t>
         </is>
       </c>
       <c r="D7" s="2" t="n">
-        <v>1</v>
+        <v>0.9631850741296019</v>
       </c>
       <c r="E7" s="2" t="n">
-        <v>0.8062611712461838</v>
+        <v>0.9048809325562031</v>
       </c>
       <c r="F7" s="2" t="n">
-        <v>0.6312961719274681</v>
+        <v>0.9046339825386165</v>
       </c>
     </row>
     <row r="8">
@@ -632,48 +632,48 @@
       </c>
       <c r="B8" s="2" t="inlineStr">
         <is>
-          <t>VGG</t>
+          <t>Top3 Features</t>
         </is>
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>C: 10.0, class_weight: balanced, gamma: scale, kernel: rbf</t>
+          <t>C: 10.0, class_weight: balanced, gamma: 0.0, kernel: rbf</t>
         </is>
       </c>
       <c r="D8" s="2" t="n">
-        <v>1</v>
+        <v>0.9890054972513743</v>
       </c>
       <c r="E8" s="2" t="n">
-        <v>0.8697293921731891</v>
+        <v>0.8489078545656399</v>
       </c>
       <c r="F8" s="2" t="n">
-        <v>0.8643384822028207</v>
+        <v>0.8388179986568166</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="inlineStr">
         <is>
-          <t>XGBoost</t>
+          <t>SVM</t>
         </is>
       </c>
       <c r="B9" s="2" t="inlineStr">
         <is>
-          <t>All Features</t>
+          <t>VGG</t>
         </is>
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>learning_rate: 0.5, max_depth: 3, min_child_weight: 1, n_estimators: 300</t>
+          <t>C: 10.0, class_weight: balanced, gamma: scale, kernel: rbf</t>
         </is>
       </c>
       <c r="D9" s="2" t="n">
         <v>1</v>
       </c>
       <c r="E9" s="2" t="n">
-        <v>0.9085460727171804</v>
+        <v>0.8697293921731891</v>
       </c>
       <c r="F9" s="2" t="n">
-        <v>0.9012760241773002</v>
+        <v>0.8623237071860309</v>
       </c>
     </row>
     <row r="10">
@@ -684,22 +684,22 @@
       </c>
       <c r="B10" s="2" t="inlineStr">
         <is>
-          <t>All Features PCA</t>
+          <t>All Features</t>
         </is>
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>learning_rate: 0.5, max_depth: 3, min_child_weight: 3, n_estimators: 300</t>
+          <t>learning_rate: 0.5, max_depth: 3, min_child_weight: 1, n_estimators: 300</t>
         </is>
       </c>
       <c r="D10" s="2" t="n">
         <v>1</v>
       </c>
       <c r="E10" s="2" t="n">
-        <v>0.8604021648626144</v>
+        <v>0.9085460727171804</v>
       </c>
       <c r="F10" s="2" t="n">
-        <v>0.8643384822028207</v>
+        <v>0.9012760241773002</v>
       </c>
     </row>
     <row r="11">
@@ -710,7 +710,7 @@
       </c>
       <c r="B11" s="2" t="inlineStr">
         <is>
-          <t>Individual Features PCA</t>
+          <t>All Features PCA</t>
         </is>
       </c>
       <c r="C11" s="2" t="inlineStr">
@@ -722,10 +722,10 @@
         <v>1</v>
       </c>
       <c r="E11" s="2" t="n">
-        <v>0.890555925617541</v>
+        <v>0.8604021648626144</v>
       </c>
       <c r="F11" s="2" t="n">
-        <v>0.8757555406312961</v>
+        <v>0.8643384822028207</v>
       </c>
     </row>
     <row r="12">
@@ -736,22 +736,22 @@
       </c>
       <c r="B12" s="2" t="inlineStr">
         <is>
-          <t>Top3 Features</t>
+          <t>Individual Features PCA</t>
         </is>
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>learning_rate: 0.5, max_depth: 3, min_child_weight: 1, n_estimators: 300</t>
+          <t>learning_rate: 0.5, max_depth: 3, min_child_weight: 3, n_estimators: 300</t>
         </is>
       </c>
       <c r="D12" s="2" t="n">
         <v>1</v>
       </c>
       <c r="E12" s="2" t="n">
-        <v>0.8597356369691923</v>
+        <v>0.890555925617541</v>
       </c>
       <c r="F12" s="2" t="n">
-        <v>0.8488918737407656</v>
+        <v>0.8757555406312961</v>
       </c>
     </row>
     <row r="13">
@@ -762,7 +762,7 @@
       </c>
       <c r="B13" s="2" t="inlineStr">
         <is>
-          <t>VGG</t>
+          <t>Top3 Features</t>
         </is>
       </c>
       <c r="C13" s="2" t="inlineStr">
@@ -774,36 +774,36 @@
         <v>1</v>
       </c>
       <c r="E13" s="2" t="n">
-        <v>0.8637334165972801</v>
+        <v>0.8597356369691923</v>
       </c>
       <c r="F13" s="2" t="n">
-        <v>0.8542646071188718</v>
+        <v>0.8488918737407656</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="2" t="inlineStr">
         <is>
-          <t>Random Forest</t>
+          <t>XGBoost</t>
         </is>
       </c>
       <c r="B14" s="2" t="inlineStr">
         <is>
-          <t>All Features</t>
+          <t>VGG</t>
         </is>
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>bootstrap: False, max_depth: 80, max_features: sqrt, min_samples_leaf: 1, n_estimators: 1500</t>
+          <t>learning_rate: 0.5, max_depth: 3, min_child_weight: 1, n_estimators: 300</t>
         </is>
       </c>
       <c r="D14" s="2" t="n">
         <v>1</v>
       </c>
       <c r="E14" s="2" t="n">
-        <v>0.8615681376630585</v>
+        <v>0.8637334165972801</v>
       </c>
       <c r="F14" s="2" t="n">
-        <v>0.8529214237743452</v>
+        <v>0.8542646071188718</v>
       </c>
     </row>
     <row r="15">
@@ -814,22 +814,22 @@
       </c>
       <c r="B15" s="2" t="inlineStr">
         <is>
-          <t>All Features PCA</t>
+          <t>All Features</t>
         </is>
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>bootstrap: False, max_depth: 60, max_features: sqrt, min_samples_leaf: 1, n_estimators: 1500</t>
+          <t>bootstrap: False, max_depth: 80, max_features: sqrt, min_samples_leaf: 1, n_estimators: 1500</t>
         </is>
       </c>
       <c r="D15" s="2" t="n">
         <v>1</v>
       </c>
       <c r="E15" s="2" t="n">
-        <v>0.6989836247571468</v>
+        <v>0.8615681376630585</v>
       </c>
       <c r="F15" s="2" t="n">
-        <v>0.7011417058428475</v>
+        <v>0.8529214237743452</v>
       </c>
     </row>
     <row r="16">
@@ -840,22 +840,22 @@
       </c>
       <c r="B16" s="2" t="inlineStr">
         <is>
-          <t>Individual Features PCA</t>
+          <t>All Features PCA</t>
         </is>
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>bootstrap: False, max_depth: 40, max_features: sqrt, min_samples_leaf: 1, n_estimators: 500</t>
+          <t>bootstrap: False, max_depth: 60, max_features: sqrt, min_samples_leaf: 1, n_estimators: 1500</t>
         </is>
       </c>
       <c r="D16" s="2" t="n">
         <v>1</v>
       </c>
       <c r="E16" s="2" t="n">
-        <v>0.8084256175409381</v>
+        <v>0.6989836247571468</v>
       </c>
       <c r="F16" s="2" t="n">
-        <v>0.7897918065815984</v>
+        <v>0.7011417058428475</v>
       </c>
     </row>
     <row r="17">
@@ -866,21 +866,47 @@
       </c>
       <c r="B17" s="2" t="inlineStr">
         <is>
-          <t>Top3 Features</t>
+          <t>Individual Features PCA</t>
         </is>
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>bootstrap: False, max_depth: 80, max_features: sqrt, min_samples_leaf: 2, n_estimators: 500</t>
+          <t>bootstrap: False, max_depth: 40, max_features: sqrt, min_samples_leaf: 1, n_estimators: 500</t>
         </is>
       </c>
       <c r="D17" s="2" t="n">
         <v>1</v>
       </c>
       <c r="E17" s="2" t="n">
+        <v>0.8084256175409381</v>
+      </c>
+      <c r="F17" s="2" t="n">
+        <v>0.7897918065815984</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="inlineStr">
+        <is>
+          <t>Random Forest</t>
+        </is>
+      </c>
+      <c r="B18" s="2" t="inlineStr">
+        <is>
+          <t>Top3 Features</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>bootstrap: False, max_depth: 80, max_features: sqrt, min_samples_leaf: 2, n_estimators: 500</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E18" s="2" t="n">
         <v>0.7932697751873439</v>
       </c>
-      <c r="F17" s="2" t="n">
+      <c r="F18" s="2" t="n">
         <v>0.7575554063129617</v>
       </c>
     </row>

--- a/Output/Classifier Evaluation/Model Performance Table.xlsx
+++ b/Output/Classifier Evaluation/Model Performance Table.xlsx
@@ -585,7 +585,7 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>C: 10.0, class_weight: balanced, gamma: 0.0, kernel: rbf</t>
+          <t>C: 10.0, class_weight: balanced, gamma: 1e-05, kernel: rbf</t>
         </is>
       </c>
       <c r="D6" s="2" t="n">
@@ -611,7 +611,7 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>C: 10.0, class_weight: balanced, gamma: 0.0, kernel: rbf</t>
+          <t>C: 10.0, class_weight: balanced, gamma: 1e-05, kernel: rbf</t>
         </is>
       </c>
       <c r="D7" s="2" t="n">
@@ -637,7 +637,7 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>C: 10.0, class_weight: balanced, gamma: 0.0, kernel: rbf</t>
+          <t>C: 10.0, class_weight: balanced, gamma: 0.00025118864315095795, kernel: rbf</t>
         </is>
       </c>
       <c r="D8" s="2" t="n">

--- a/Output/Classifier Evaluation/Model Performance Table.xlsx
+++ b/Output/Classifier Evaluation/Model Performance Table.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F18"/>
+  <dimension ref="A1:F20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -554,48 +554,48 @@
       </c>
       <c r="B5" s="2" t="inlineStr">
         <is>
-          <t>VGG</t>
+          <t>Top 3 Features</t>
         </is>
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>C: 0.1, class_weight: None, l1_ratio: 1.0, multi_class: multinomial, penalty: elasticnet, solver: saga</t>
+          <t>C: 0.1, class_weight: None, l1_ratio: 1.0, multi_class: ovr, penalty: elasticnet, solver: saga</t>
         </is>
       </c>
       <c r="D5" s="2" t="n">
-        <v>0.9180409795102449</v>
+        <v>0.9232050641345994</v>
       </c>
       <c r="E5" s="2" t="n">
-        <v>0.8635645295587011</v>
+        <v>0.8580710519011934</v>
       </c>
       <c r="F5" s="2" t="n">
-        <v>0.857622565480188</v>
+        <v>0.8502350570852921</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="inlineStr">
         <is>
-          <t>SVM</t>
+          <t>Logistic Regression</t>
         </is>
       </c>
       <c r="B6" s="2" t="inlineStr">
         <is>
-          <t>All Features PCA</t>
+          <t>VGG</t>
         </is>
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>C: 10.0, class_weight: balanced, gamma: 1e-05, kernel: rbf</t>
+          <t>C: 0.1, class_weight: None, l1_ratio: 1.0, multi_class: multinomial, penalty: elasticnet, solver: saga</t>
         </is>
       </c>
       <c r="D6" s="2" t="n">
-        <v>0.9643511577544561</v>
+        <v>0.9180409795102449</v>
       </c>
       <c r="E6" s="2" t="n">
-        <v>0.8827245351096309</v>
+        <v>0.8635645295587011</v>
       </c>
       <c r="F6" s="2" t="n">
-        <v>0.8985896574882472</v>
+        <v>0.857622565480188</v>
       </c>
     </row>
     <row r="7">
@@ -606,7 +606,7 @@
       </c>
       <c r="B7" s="2" t="inlineStr">
         <is>
-          <t>Individual Features PCA</t>
+          <t>All Features PCA</t>
         </is>
       </c>
       <c r="C7" s="2" t="inlineStr">
@@ -615,13 +615,13 @@
         </is>
       </c>
       <c r="D7" s="2" t="n">
-        <v>0.9631850741296019</v>
+        <v>0.9643511577544561</v>
       </c>
       <c r="E7" s="2" t="n">
-        <v>0.9048809325562031</v>
+        <v>0.8827245351096309</v>
       </c>
       <c r="F7" s="2" t="n">
-        <v>0.9046339825386165</v>
+        <v>0.8985896574882472</v>
       </c>
     </row>
     <row r="8">
@@ -632,22 +632,22 @@
       </c>
       <c r="B8" s="2" t="inlineStr">
         <is>
-          <t>Top3 Features</t>
+          <t>Individual Features PCA</t>
         </is>
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>C: 10.0, class_weight: balanced, gamma: 0.00025118864315095795, kernel: rbf</t>
+          <t>C: 10.0, class_weight: balanced, gamma: 1e-05, kernel: rbf</t>
         </is>
       </c>
       <c r="D8" s="2" t="n">
-        <v>0.9890054972513743</v>
+        <v>0.9631850741296019</v>
       </c>
       <c r="E8" s="2" t="n">
-        <v>0.8489078545656399</v>
+        <v>0.9048809325562031</v>
       </c>
       <c r="F8" s="2" t="n">
-        <v>0.8388179986568166</v>
+        <v>0.9046339825386165</v>
       </c>
     </row>
     <row r="9">
@@ -658,48 +658,48 @@
       </c>
       <c r="B9" s="2" t="inlineStr">
         <is>
-          <t>VGG</t>
+          <t>Top 3 Features</t>
         </is>
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>C: 10.0, class_weight: balanced, gamma: scale, kernel: rbf</t>
+          <t>C: 10.0, class_weight: balanced, gamma: 0.00025118864315095795, kernel: rbf</t>
         </is>
       </c>
       <c r="D9" s="2" t="n">
-        <v>1</v>
+        <v>0.9890054972513743</v>
       </c>
       <c r="E9" s="2" t="n">
-        <v>0.8697293921731891</v>
+        <v>0.8489078545656399</v>
       </c>
       <c r="F9" s="2" t="n">
-        <v>0.8623237071860309</v>
+        <v>0.8388179986568166</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="inlineStr">
         <is>
-          <t>XGBoost</t>
+          <t>SVM</t>
         </is>
       </c>
       <c r="B10" s="2" t="inlineStr">
         <is>
-          <t>All Features</t>
+          <t>VGG</t>
         </is>
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>learning_rate: 0.5, max_depth: 3, min_child_weight: 1, n_estimators: 300</t>
+          <t>C: 10.0, class_weight: balanced, gamma: scale, kernel: rbf</t>
         </is>
       </c>
       <c r="D10" s="2" t="n">
         <v>1</v>
       </c>
       <c r="E10" s="2" t="n">
-        <v>0.9085460727171804</v>
+        <v>0.8697293921731891</v>
       </c>
       <c r="F10" s="2" t="n">
-        <v>0.9012760241773002</v>
+        <v>0.8623237071860309</v>
       </c>
     </row>
     <row r="11">
@@ -710,22 +710,22 @@
       </c>
       <c r="B11" s="2" t="inlineStr">
         <is>
-          <t>All Features PCA</t>
+          <t>All Features</t>
         </is>
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>learning_rate: 0.5, max_depth: 3, min_child_weight: 3, n_estimators: 300</t>
+          <t>learning_rate: 0.5, max_depth: 3, min_child_weight: 1, n_estimators: 300</t>
         </is>
       </c>
       <c r="D11" s="2" t="n">
         <v>1</v>
       </c>
       <c r="E11" s="2" t="n">
-        <v>0.8604021648626144</v>
+        <v>0.9085460727171804</v>
       </c>
       <c r="F11" s="2" t="n">
-        <v>0.8643384822028207</v>
+        <v>0.9012760241773002</v>
       </c>
     </row>
     <row r="12">
@@ -736,7 +736,7 @@
       </c>
       <c r="B12" s="2" t="inlineStr">
         <is>
-          <t>Individual Features PCA</t>
+          <t>All Features PCA</t>
         </is>
       </c>
       <c r="C12" s="2" t="inlineStr">
@@ -748,10 +748,10 @@
         <v>1</v>
       </c>
       <c r="E12" s="2" t="n">
-        <v>0.890555925617541</v>
+        <v>0.8604021648626144</v>
       </c>
       <c r="F12" s="2" t="n">
-        <v>0.8757555406312961</v>
+        <v>0.8643384822028207</v>
       </c>
     </row>
     <row r="13">
@@ -762,22 +762,22 @@
       </c>
       <c r="B13" s="2" t="inlineStr">
         <is>
-          <t>Top3 Features</t>
+          <t>Individual Features PCA</t>
         </is>
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>learning_rate: 0.5, max_depth: 3, min_child_weight: 1, n_estimators: 300</t>
+          <t>learning_rate: 0.5, max_depth: 3, min_child_weight: 3, n_estimators: 300</t>
         </is>
       </c>
       <c r="D13" s="2" t="n">
         <v>1</v>
       </c>
       <c r="E13" s="2" t="n">
-        <v>0.8597356369691923</v>
+        <v>0.890555925617541</v>
       </c>
       <c r="F13" s="2" t="n">
-        <v>0.8488918737407656</v>
+        <v>0.8757555406312961</v>
       </c>
     </row>
     <row r="14">
@@ -788,7 +788,7 @@
       </c>
       <c r="B14" s="2" t="inlineStr">
         <is>
-          <t>VGG</t>
+          <t>Top 3 Features</t>
         </is>
       </c>
       <c r="C14" s="2" t="inlineStr">
@@ -800,36 +800,36 @@
         <v>1</v>
       </c>
       <c r="E14" s="2" t="n">
-        <v>0.8637334165972801</v>
+        <v>0.8597356369691923</v>
       </c>
       <c r="F14" s="2" t="n">
-        <v>0.8542646071188718</v>
+        <v>0.8488918737407656</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="2" t="inlineStr">
         <is>
-          <t>Random Forest</t>
+          <t>XGBoost</t>
         </is>
       </c>
       <c r="B15" s="2" t="inlineStr">
         <is>
-          <t>All Features</t>
+          <t>VGG</t>
         </is>
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>bootstrap: False, max_depth: 80, max_features: sqrt, min_samples_leaf: 1, n_estimators: 1500</t>
+          <t>learning_rate: 0.5, max_depth: 3, min_child_weight: 1, n_estimators: 300</t>
         </is>
       </c>
       <c r="D15" s="2" t="n">
         <v>1</v>
       </c>
       <c r="E15" s="2" t="n">
-        <v>0.8615681376630585</v>
+        <v>0.8637334165972801</v>
       </c>
       <c r="F15" s="2" t="n">
-        <v>0.8529214237743452</v>
+        <v>0.8542646071188718</v>
       </c>
     </row>
     <row r="16">
@@ -840,22 +840,22 @@
       </c>
       <c r="B16" s="2" t="inlineStr">
         <is>
-          <t>All Features PCA</t>
+          <t>All Features</t>
         </is>
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>bootstrap: False, max_depth: 60, max_features: sqrt, min_samples_leaf: 1, n_estimators: 1500</t>
+          <t>bootstrap: False, max_depth: 80, max_features: sqrt, min_samples_leaf: 1, n_estimators: 1500</t>
         </is>
       </c>
       <c r="D16" s="2" t="n">
         <v>1</v>
       </c>
       <c r="E16" s="2" t="n">
-        <v>0.6989836247571468</v>
+        <v>0.8615681376630585</v>
       </c>
       <c r="F16" s="2" t="n">
-        <v>0.7011417058428475</v>
+        <v>0.8529214237743452</v>
       </c>
     </row>
     <row r="17">
@@ -866,22 +866,22 @@
       </c>
       <c r="B17" s="2" t="inlineStr">
         <is>
-          <t>Individual Features PCA</t>
+          <t>All Features PCA</t>
         </is>
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>bootstrap: False, max_depth: 40, max_features: sqrt, min_samples_leaf: 1, n_estimators: 500</t>
+          <t>bootstrap: False, max_depth: 60, max_features: sqrt, min_samples_leaf: 1, n_estimators: 1500</t>
         </is>
       </c>
       <c r="D17" s="2" t="n">
         <v>1</v>
       </c>
       <c r="E17" s="2" t="n">
-        <v>0.8084256175409381</v>
+        <v>0.6989836247571468</v>
       </c>
       <c r="F17" s="2" t="n">
-        <v>0.7897918065815984</v>
+        <v>0.7011417058428475</v>
       </c>
     </row>
     <row r="18">
@@ -892,22 +892,74 @@
       </c>
       <c r="B18" s="2" t="inlineStr">
         <is>
-          <t>Top3 Features</t>
+          <t>Individual Features PCA</t>
         </is>
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
+          <t>bootstrap: False, max_depth: 40, max_features: sqrt, min_samples_leaf: 1, n_estimators: 500</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E18" s="2" t="n">
+        <v>0.8084256175409381</v>
+      </c>
+      <c r="F18" s="2" t="n">
+        <v>0.7897918065815984</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="inlineStr">
+        <is>
+          <t>Random Forest</t>
+        </is>
+      </c>
+      <c r="B19" s="2" t="inlineStr">
+        <is>
+          <t>Top 3 Features</t>
+        </is>
+      </c>
+      <c r="C19" s="2" t="inlineStr">
+        <is>
           <t>bootstrap: False, max_depth: 80, max_features: sqrt, min_samples_leaf: 2, n_estimators: 500</t>
         </is>
       </c>
-      <c r="D18" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="E18" s="2" t="n">
+      <c r="D19" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E19" s="2" t="n">
         <v>0.7932697751873439</v>
       </c>
-      <c r="F18" s="2" t="n">
+      <c r="F19" s="2" t="n">
         <v>0.7575554063129617</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="inlineStr">
+        <is>
+          <t>Random Forest</t>
+        </is>
+      </c>
+      <c r="B20" s="2" t="inlineStr">
+        <is>
+          <t>VGG</t>
+        </is>
+      </c>
+      <c r="C20" s="2" t="inlineStr">
+        <is>
+          <t>bootstrap: False, max_depth: 60, max_features: sqrt, min_samples_leaf: 2, n_estimators: 1500</t>
+        </is>
+      </c>
+      <c r="D20" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E20" s="2" t="n">
+        <v>0.8062632528448516</v>
+      </c>
+      <c r="F20" s="2" t="n">
+        <v>0.7844190732034922</v>
       </c>
     </row>
   </sheetData>

--- a/Output/Classifier Evaluation/Model Performance Table.xlsx
+++ b/Output/Classifier Evaluation/Model Performance Table.xlsx
@@ -502,22 +502,22 @@
       </c>
       <c r="B3" s="2" t="inlineStr">
         <is>
-          <t>All Features PCA</t>
+          <t>Individual Features PCA</t>
         </is>
       </c>
       <c r="C3" s="2" t="inlineStr">
         <is>
-          <t>C: 0.1, class_weight: None, l1_ratio: 0.5, multi_class: ovr, penalty: elasticnet, solver: saga</t>
+          <t>C: 0.01, class_weight: balanced, l1_ratio: 0.25, multi_class: ovr, penalty: elasticnet, solver: saga</t>
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>0.9921705813759787</v>
+        <v>0.9580209895052474</v>
       </c>
       <c r="E3" s="2" t="n">
-        <v>0.9048806550097142</v>
+        <v>0.9158759367194005</v>
       </c>
       <c r="F3" s="2" t="n">
-        <v>0.890530557421088</v>
+        <v>0.9093351242444594</v>
       </c>
     </row>
     <row r="4">
@@ -528,22 +528,22 @@
       </c>
       <c r="B4" s="2" t="inlineStr">
         <is>
-          <t>Individual Features PCA</t>
+          <t>All Features PCA</t>
         </is>
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>C: 0.01, class_weight: balanced, l1_ratio: 0.25, multi_class: ovr, penalty: elasticnet, solver: saga</t>
+          <t>C: 0.1, class_weight: None, l1_ratio: 0.5, multi_class: ovr, penalty: elasticnet, solver: saga</t>
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>0.9580209895052474</v>
+        <v>0.9921705813759787</v>
       </c>
       <c r="E4" s="2" t="n">
-        <v>0.9158759367194005</v>
+        <v>0.9048806550097142</v>
       </c>
       <c r="F4" s="2" t="n">
-        <v>0.9093351242444594</v>
+        <v>0.890530557421088</v>
       </c>
     </row>
     <row r="5">
@@ -554,22 +554,22 @@
       </c>
       <c r="B5" s="2" t="inlineStr">
         <is>
-          <t>Top 3 Features</t>
+          <t>VGG</t>
         </is>
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>C: 0.1, class_weight: None, l1_ratio: 1.0, multi_class: ovr, penalty: elasticnet, solver: saga</t>
+          <t>C: 0.1, class_weight: None, l1_ratio: 1.0, multi_class: multinomial, penalty: elasticnet, solver: saga</t>
         </is>
       </c>
       <c r="D5" s="2" t="n">
-        <v>0.9232050641345994</v>
+        <v>0.9180409795102449</v>
       </c>
       <c r="E5" s="2" t="n">
-        <v>0.8580710519011934</v>
+        <v>0.8635645295587011</v>
       </c>
       <c r="F5" s="2" t="n">
-        <v>0.8502350570852921</v>
+        <v>0.857622565480188</v>
       </c>
     </row>
     <row r="6">
@@ -580,54 +580,54 @@
       </c>
       <c r="B6" s="2" t="inlineStr">
         <is>
-          <t>VGG</t>
+          <t>Top 3 Features</t>
         </is>
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>C: 0.1, class_weight: None, l1_ratio: 1.0, multi_class: multinomial, penalty: elasticnet, solver: saga</t>
+          <t>C: 0.1, class_weight: None, l1_ratio: 1.0, multi_class: ovr, penalty: elasticnet, solver: saga</t>
         </is>
       </c>
       <c r="D6" s="2" t="n">
-        <v>0.9180409795102449</v>
+        <v>0.9232050641345994</v>
       </c>
       <c r="E6" s="2" t="n">
-        <v>0.8635645295587011</v>
+        <v>0.8580710519011934</v>
       </c>
       <c r="F6" s="2" t="n">
-        <v>0.857622565480188</v>
+        <v>0.8502350570852921</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="inlineStr">
         <is>
-          <t>SVM</t>
+          <t>Random Forest</t>
         </is>
       </c>
       <c r="B7" s="2" t="inlineStr">
         <is>
-          <t>All Features PCA</t>
+          <t>All Features</t>
         </is>
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>C: 10.0, class_weight: balanced, gamma: 1e-05, kernel: rbf</t>
+          <t>bootstrap: False, max_depth: 80, max_features: sqrt, min_samples_leaf: 1, n_estimators: 1500</t>
         </is>
       </c>
       <c r="D7" s="2" t="n">
-        <v>0.9643511577544561</v>
+        <v>1</v>
       </c>
       <c r="E7" s="2" t="n">
-        <v>0.8827245351096309</v>
+        <v>0.8615681376630585</v>
       </c>
       <c r="F7" s="2" t="n">
-        <v>0.8985896574882472</v>
+        <v>0.8529214237743452</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="inlineStr">
         <is>
-          <t>SVM</t>
+          <t>Random Forest</t>
         </is>
       </c>
       <c r="B8" s="2" t="inlineStr">
@@ -637,205 +637,205 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>C: 10.0, class_weight: balanced, gamma: 1e-05, kernel: rbf</t>
+          <t>bootstrap: False, max_depth: 40, max_features: sqrt, min_samples_leaf: 1, n_estimators: 500</t>
         </is>
       </c>
       <c r="D8" s="2" t="n">
-        <v>0.9631850741296019</v>
+        <v>1</v>
       </c>
       <c r="E8" s="2" t="n">
-        <v>0.9048809325562031</v>
+        <v>0.8084256175409381</v>
       </c>
       <c r="F8" s="2" t="n">
-        <v>0.9046339825386165</v>
+        <v>0.7897918065815984</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="inlineStr">
         <is>
-          <t>SVM</t>
+          <t>Random Forest</t>
         </is>
       </c>
       <c r="B9" s="2" t="inlineStr">
         <is>
-          <t>Top 3 Features</t>
+          <t>VGG</t>
         </is>
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>C: 10.0, class_weight: balanced, gamma: 0.00025118864315095795, kernel: rbf</t>
+          <t>bootstrap: False, max_depth: 60, max_features: sqrt, min_samples_leaf: 2, n_estimators: 1500</t>
         </is>
       </c>
       <c r="D9" s="2" t="n">
-        <v>0.9890054972513743</v>
+        <v>1</v>
       </c>
       <c r="E9" s="2" t="n">
-        <v>0.8489078545656399</v>
+        <v>0.8062632528448516</v>
       </c>
       <c r="F9" s="2" t="n">
-        <v>0.8388179986568166</v>
+        <v>0.7844190732034922</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="inlineStr">
         <is>
-          <t>SVM</t>
+          <t>Random Forest</t>
         </is>
       </c>
       <c r="B10" s="2" t="inlineStr">
         <is>
-          <t>VGG</t>
+          <t>Top 3 Features</t>
         </is>
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>C: 10.0, class_weight: balanced, gamma: scale, kernel: rbf</t>
+          <t>bootstrap: False, max_depth: 80, max_features: sqrt, min_samples_leaf: 2, n_estimators: 500</t>
         </is>
       </c>
       <c r="D10" s="2" t="n">
         <v>1</v>
       </c>
       <c r="E10" s="2" t="n">
-        <v>0.8697293921731891</v>
+        <v>0.7932697751873439</v>
       </c>
       <c r="F10" s="2" t="n">
-        <v>0.8623237071860309</v>
+        <v>0.7575554063129617</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="2" t="inlineStr">
         <is>
-          <t>XGBoost</t>
+          <t>Random Forest</t>
         </is>
       </c>
       <c r="B11" s="2" t="inlineStr">
         <is>
-          <t>All Features</t>
+          <t>All Features PCA</t>
         </is>
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>learning_rate: 0.5, max_depth: 3, min_child_weight: 1, n_estimators: 300</t>
+          <t>bootstrap: False, max_depth: 60, max_features: sqrt, min_samples_leaf: 1, n_estimators: 1500</t>
         </is>
       </c>
       <c r="D11" s="2" t="n">
         <v>1</v>
       </c>
       <c r="E11" s="2" t="n">
-        <v>0.9085460727171804</v>
+        <v>0.6989836247571468</v>
       </c>
       <c r="F11" s="2" t="n">
-        <v>0.9012760241773002</v>
+        <v>0.7011417058428475</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="2" t="inlineStr">
         <is>
-          <t>XGBoost</t>
+          <t>SVM</t>
         </is>
       </c>
       <c r="B12" s="2" t="inlineStr">
         <is>
-          <t>All Features PCA</t>
+          <t>Individual Features PCA</t>
         </is>
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>learning_rate: 0.5, max_depth: 3, min_child_weight: 3, n_estimators: 300</t>
+          <t>C: 10.0, class_weight: balanced, gamma: 1e-05, kernel: rbf</t>
         </is>
       </c>
       <c r="D12" s="2" t="n">
-        <v>1</v>
+        <v>0.9631850741296019</v>
       </c>
       <c r="E12" s="2" t="n">
-        <v>0.8604021648626144</v>
+        <v>0.9048809325562031</v>
       </c>
       <c r="F12" s="2" t="n">
-        <v>0.8643384822028207</v>
+        <v>0.9046339825386165</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="2" t="inlineStr">
         <is>
-          <t>XGBoost</t>
+          <t>SVM</t>
         </is>
       </c>
       <c r="B13" s="2" t="inlineStr">
         <is>
-          <t>Individual Features PCA</t>
+          <t>All Features PCA</t>
         </is>
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>learning_rate: 0.5, max_depth: 3, min_child_weight: 3, n_estimators: 300</t>
+          <t>C: 10.0, class_weight: balanced, gamma: 1e-05, kernel: rbf</t>
         </is>
       </c>
       <c r="D13" s="2" t="n">
-        <v>1</v>
+        <v>0.9643511577544561</v>
       </c>
       <c r="E13" s="2" t="n">
-        <v>0.890555925617541</v>
+        <v>0.8827245351096309</v>
       </c>
       <c r="F13" s="2" t="n">
-        <v>0.8757555406312961</v>
+        <v>0.8985896574882472</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="2" t="inlineStr">
         <is>
-          <t>XGBoost</t>
+          <t>SVM</t>
         </is>
       </c>
       <c r="B14" s="2" t="inlineStr">
         <is>
-          <t>Top 3 Features</t>
+          <t>VGG</t>
         </is>
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>learning_rate: 0.5, max_depth: 3, min_child_weight: 1, n_estimators: 300</t>
+          <t>C: 10.0, class_weight: balanced, gamma: scale, kernel: rbf</t>
         </is>
       </c>
       <c r="D14" s="2" t="n">
         <v>1</v>
       </c>
       <c r="E14" s="2" t="n">
-        <v>0.8597356369691923</v>
+        <v>0.8697293921731891</v>
       </c>
       <c r="F14" s="2" t="n">
-        <v>0.8488918737407656</v>
+        <v>0.8623237071860309</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="2" t="inlineStr">
         <is>
-          <t>XGBoost</t>
+          <t>SVM</t>
         </is>
       </c>
       <c r="B15" s="2" t="inlineStr">
         <is>
-          <t>VGG</t>
+          <t>Top 3 Features</t>
         </is>
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>learning_rate: 0.5, max_depth: 3, min_child_weight: 1, n_estimators: 300</t>
+          <t>C: 10.0, class_weight: balanced, gamma: 0.00025118864315095795, kernel: rbf</t>
         </is>
       </c>
       <c r="D15" s="2" t="n">
-        <v>1</v>
+        <v>0.9890054972513743</v>
       </c>
       <c r="E15" s="2" t="n">
-        <v>0.8637334165972801</v>
+        <v>0.8489078545656399</v>
       </c>
       <c r="F15" s="2" t="n">
-        <v>0.8542646071188718</v>
+        <v>0.8388179986568166</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="2" t="inlineStr">
         <is>
-          <t>Random Forest</t>
+          <t>XGBoost</t>
         </is>
       </c>
       <c r="B16" s="2" t="inlineStr">
@@ -845,121 +845,121 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>bootstrap: False, max_depth: 80, max_features: sqrt, min_samples_leaf: 1, n_estimators: 1500</t>
+          <t>learning_rate: 0.5, max_depth: 3, min_child_weight: 1, n_estimators: 300</t>
         </is>
       </c>
       <c r="D16" s="2" t="n">
         <v>1</v>
       </c>
       <c r="E16" s="2" t="n">
-        <v>0.8615681376630585</v>
+        <v>0.9085460727171804</v>
       </c>
       <c r="F16" s="2" t="n">
-        <v>0.8529214237743452</v>
+        <v>0.9012760241773002</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="2" t="inlineStr">
         <is>
-          <t>Random Forest</t>
+          <t>XGBoost</t>
         </is>
       </c>
       <c r="B17" s="2" t="inlineStr">
         <is>
-          <t>All Features PCA</t>
+          <t>Individual Features PCA</t>
         </is>
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>bootstrap: False, max_depth: 60, max_features: sqrt, min_samples_leaf: 1, n_estimators: 1500</t>
+          <t>learning_rate: 0.5, max_depth: 3, min_child_weight: 3, n_estimators: 300</t>
         </is>
       </c>
       <c r="D17" s="2" t="n">
         <v>1</v>
       </c>
       <c r="E17" s="2" t="n">
-        <v>0.6989836247571468</v>
+        <v>0.890555925617541</v>
       </c>
       <c r="F17" s="2" t="n">
-        <v>0.7011417058428475</v>
+        <v>0.8757555406312961</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="2" t="inlineStr">
         <is>
-          <t>Random Forest</t>
+          <t>XGBoost</t>
         </is>
       </c>
       <c r="B18" s="2" t="inlineStr">
         <is>
-          <t>Individual Features PCA</t>
+          <t>All Features PCA</t>
         </is>
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>bootstrap: False, max_depth: 40, max_features: sqrt, min_samples_leaf: 1, n_estimators: 500</t>
+          <t>learning_rate: 0.5, max_depth: 3, min_child_weight: 3, n_estimators: 300</t>
         </is>
       </c>
       <c r="D18" s="2" t="n">
         <v>1</v>
       </c>
       <c r="E18" s="2" t="n">
-        <v>0.8084256175409381</v>
+        <v>0.8604021648626144</v>
       </c>
       <c r="F18" s="2" t="n">
-        <v>0.7897918065815984</v>
+        <v>0.8643384822028207</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="2" t="inlineStr">
         <is>
-          <t>Random Forest</t>
+          <t>XGBoost</t>
         </is>
       </c>
       <c r="B19" s="2" t="inlineStr">
         <is>
-          <t>Top 3 Features</t>
+          <t>VGG</t>
         </is>
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>bootstrap: False, max_depth: 80, max_features: sqrt, min_samples_leaf: 2, n_estimators: 500</t>
+          <t>learning_rate: 0.5, max_depth: 3, min_child_weight: 1, n_estimators: 300</t>
         </is>
       </c>
       <c r="D19" s="2" t="n">
         <v>1</v>
       </c>
       <c r="E19" s="2" t="n">
-        <v>0.7932697751873439</v>
+        <v>0.8637334165972801</v>
       </c>
       <c r="F19" s="2" t="n">
-        <v>0.7575554063129617</v>
+        <v>0.8542646071188718</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="2" t="inlineStr">
         <is>
-          <t>Random Forest</t>
+          <t>XGBoost</t>
         </is>
       </c>
       <c r="B20" s="2" t="inlineStr">
         <is>
-          <t>VGG</t>
+          <t>Top 3 Features</t>
         </is>
       </c>
       <c r="C20" s="2" t="inlineStr">
         <is>
-          <t>bootstrap: False, max_depth: 60, max_features: sqrt, min_samples_leaf: 2, n_estimators: 1500</t>
+          <t>learning_rate: 0.5, max_depth: 3, min_child_weight: 1, n_estimators: 300</t>
         </is>
       </c>
       <c r="D20" s="2" t="n">
         <v>1</v>
       </c>
       <c r="E20" s="2" t="n">
-        <v>0.8062632528448516</v>
+        <v>0.8597356369691923</v>
       </c>
       <c r="F20" s="2" t="n">
-        <v>0.7844190732034922</v>
+        <v>0.8488918737407656</v>
       </c>
     </row>
   </sheetData>

--- a/Output/Classifier Evaluation/Model Performance Table.xlsx
+++ b/Output/Classifier Evaluation/Model Performance Table.xlsx
@@ -819,7 +819,7 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>C: 10.0, class_weight: balanced, gamma: 0.00025118864315095795, kernel: rbf</t>
+          <t>C: 10.0, class_weight: balanced, gamma: 2.51e-04, kernel: rbf</t>
         </is>
       </c>
       <c r="D15" s="2" t="n">
